--- a/out_partizan.xlsx
+++ b/out_partizan.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="161" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="188" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="out_partizan" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="190">
   <si>
     <t>May</t>
   </si>
@@ -23,7 +23,7 @@
     <t>nan</t>
   </si>
   <si>
-    <t>9.45829959514</t>
+    <t>8.8</t>
   </si>
   <si>
     <t>22.1</t>
@@ -32,7 +32,7 @@
     <t>-11.0</t>
   </si>
   <si>
-    <t>73.7398373984</t>
+    <t>78.0</t>
   </si>
   <si>
     <t>100.0</t>
@@ -41,7 +41,7 @@
     <t>21.0</t>
   </si>
   <si>
-    <t>5.86</t>
+    <t>2.0</t>
   </si>
   <si>
     <t>26.0</t>
@@ -50,7 +50,7 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>12.2645833333</t>
+    <t>11.4</t>
   </si>
   <si>
     <t>25.2</t>
@@ -59,37 +59,31 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>69.6333333333</t>
+    <t>72.0</t>
   </si>
   <si>
     <t>23.0</t>
   </si>
   <si>
-    <t>5.42727272727</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>11.708097166</t>
+    <t>11.0</t>
   </si>
   <si>
     <t>3.9</t>
   </si>
   <si>
-    <t>67.9349593496</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>3.52075471698</t>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
   <si>
     <t>25.0</t>
   </si>
   <si>
-    <t>11.2824786325</t>
+    <t>10.95</t>
   </si>
   <si>
     <t>24.8</t>
@@ -98,19 +92,19 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>74.9871244635</t>
+    <t>79.0</t>
   </si>
   <si>
     <t>30.0</t>
   </si>
   <si>
-    <t>5.3</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>20.0</t>
   </si>
   <si>
-    <t>13.8991869919</t>
+    <t>12.95</t>
   </si>
   <si>
     <t>26.1</t>
@@ -119,19 +113,16 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>58.8495934959</t>
+    <t>57.5</t>
   </si>
   <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>2.23333333333</t>
-  </si>
-  <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>12.4368421053</t>
+    <t>12.1</t>
   </si>
   <si>
     <t>26.7</t>
@@ -140,19 +131,16 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>67.2357723577</t>
+    <t>67.0</t>
   </si>
   <si>
     <t>16.0</t>
   </si>
   <si>
-    <t>7.94285714286</t>
-  </si>
-  <si>
     <t>47.0</t>
   </si>
   <si>
-    <t>10.0959677419</t>
+    <t>8.85</t>
   </si>
   <si>
     <t>23.7</t>
@@ -161,25 +149,19 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>74.7620967742</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>3.2511627907</t>
-  </si>
-  <si>
     <t>13.0</t>
   </si>
   <si>
-    <t>12.0782258065</t>
+    <t>11.1</t>
   </si>
   <si>
     <t>25.1</t>
   </si>
   <si>
-    <t>71.7903225806</t>
+    <t>75.5</t>
   </si>
   <si>
     <t>98.0</t>
@@ -188,13 +170,10 @@
     <t>19.0</t>
   </si>
   <si>
-    <t>2.70689655172</t>
-  </si>
-  <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>11.6362903226</t>
+    <t>10.9</t>
   </si>
   <si>
     <t>28.8</t>
@@ -203,82 +182,64 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>74.7822580645</t>
+    <t>82.0</t>
   </si>
   <si>
     <t>97.0</t>
   </si>
   <si>
-    <t>5.1875</t>
-  </si>
-  <si>
-    <t>12.4866935484</t>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>11.65</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>69.8064516129</t>
-  </si>
-  <si>
     <t>17.0</t>
   </si>
   <si>
-    <t>7.77</t>
+    <t>5.0</t>
   </si>
   <si>
     <t>34.0</t>
   </si>
   <si>
-    <t>12.4403225806</t>
-  </si>
-  <si>
     <t>26.2</t>
   </si>
   <si>
     <t>1.8</t>
   </si>
   <si>
-    <t>63.3951612903</t>
-  </si>
-  <si>
     <t>95.0</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>3.21538461538</t>
-  </si>
-  <si>
     <t>12.0</t>
   </si>
   <si>
     <t>July</t>
   </si>
   <si>
-    <t>18.5591489362</t>
+    <t>18.3</t>
   </si>
   <si>
     <t>28.7</t>
   </si>
   <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>87.8418803419</t>
+    <t>91.0</t>
   </si>
   <si>
     <t>40.0</t>
   </si>
   <si>
-    <t>5.53928571429</t>
-  </si>
-  <si>
     <t>44.0</t>
   </si>
   <si>
-    <t>19.8897540984</t>
+    <t>19.2</t>
   </si>
   <si>
     <t>30.9</t>
@@ -287,73 +248,61 @@
     <t>11.5</t>
   </si>
   <si>
-    <t>80.1475409836</t>
+    <t>84.0</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>5.84857142857</t>
-  </si>
-  <si>
-    <t>18.5402439024</t>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>17.6</t>
   </si>
   <si>
     <t>30.6</t>
   </si>
   <si>
-    <t>79.6829268293</t>
-  </si>
-  <si>
-    <t>4.63076923077</t>
+    <t>86.5</t>
   </si>
   <si>
     <t>46.0</t>
   </si>
   <si>
-    <t>20.7898734177</t>
-  </si>
-  <si>
     <t>31.7</t>
   </si>
   <si>
     <t>11.8</t>
   </si>
   <si>
-    <t>84.2911392405</t>
+    <t>89.0</t>
   </si>
   <si>
     <t>43.0</t>
   </si>
   <si>
-    <t>10.5214285714</t>
-  </si>
-  <si>
     <t>45.0</t>
   </si>
   <si>
     <t>0.4</t>
   </si>
   <si>
-    <t>18.0356557377</t>
+    <t>17.5</t>
   </si>
   <si>
     <t>27.4</t>
   </si>
   <si>
-    <t>88.6352459016</t>
+    <t>92.0</t>
   </si>
   <si>
     <t>50.0</t>
   </si>
   <si>
-    <t>10.8526315789</t>
-  </si>
-  <si>
     <t>58.0</t>
   </si>
   <si>
-    <t>20.237804878</t>
+    <t>20.2</t>
   </si>
   <si>
     <t>29.5</t>
@@ -362,49 +311,37 @@
     <t>14.6</t>
   </si>
   <si>
-    <t>89.5551020408</t>
+    <t>93.0</t>
   </si>
   <si>
     <t>55.0</t>
   </si>
   <si>
-    <t>6.78367346939</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>20.2136929461</t>
+    <t>19.7</t>
   </si>
   <si>
     <t>12.6</t>
   </si>
   <si>
-    <t>86.5062240664</t>
-  </si>
-  <si>
     <t>42.0</t>
   </si>
   <si>
-    <t>16.496</t>
+    <t>7.0</t>
   </si>
   <si>
     <t>76.0</t>
   </si>
   <si>
-    <t>20.1024193548</t>
-  </si>
-  <si>
-    <t>82.8225806452</t>
-  </si>
-  <si>
-    <t>6.925</t>
+    <t>19.35</t>
+  </si>
+  <si>
+    <t>85.0</t>
   </si>
   <si>
     <t>33.0</t>
   </si>
   <si>
-    <t>20.8464566929</t>
+    <t>19.9</t>
   </si>
   <si>
     <t>29.7</t>
@@ -413,25 +350,22 @@
     <t>15.0</t>
   </si>
   <si>
-    <t>85.9094488189</t>
+    <t>90.0</t>
   </si>
   <si>
     <t>48.0</t>
   </si>
   <si>
-    <t>11.2033333333</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>20.7096774194</t>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>20.4</t>
   </si>
   <si>
     <t>29.0</t>
   </si>
   <si>
-    <t>82.4274193548</t>
+    <t>86.0</t>
   </si>
   <si>
     <t>99.0</t>
@@ -440,10 +374,7 @@
     <t>38.0</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>19.8935483871</t>
+    <t>0.8</t>
   </si>
   <si>
     <t>31.6</t>
@@ -452,19 +383,13 @@
     <t>11.7</t>
   </si>
   <si>
-    <t>79.8790322581</t>
-  </si>
-  <si>
-    <t>9.42777777778</t>
-  </si>
-  <si>
     <t>65.0</t>
   </si>
   <si>
     <t>June</t>
   </si>
   <si>
-    <t>17.6420833333</t>
+    <t>16.85</t>
   </si>
   <si>
     <t>32.1</t>
@@ -473,52 +398,25 @@
     <t>10.2</t>
   </si>
   <si>
-    <t>80.9666666667</t>
-  </si>
-  <si>
-    <t>2.76153846154</t>
-  </si>
-  <si>
-    <t>14.6133891213</t>
+    <t>87.0</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>82.5084033613</t>
-  </si>
-  <si>
-    <t>3.085</t>
-  </si>
-  <si>
-    <t>17.5092050209</t>
-  </si>
-  <si>
     <t>8.4</t>
   </si>
   <si>
-    <t>72.4560669456</t>
-  </si>
-  <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>16.2310638298</t>
+    <t>15.8</t>
   </si>
   <si>
     <t>5.8</t>
   </si>
   <si>
-    <t>75.3914893617</t>
-  </si>
-  <si>
-    <t>14.1857142857</t>
-  </si>
-  <si>
     <t>61.0</t>
   </si>
   <si>
-    <t>14.7638655462</t>
+    <t>14.2</t>
   </si>
   <si>
     <t>27.6</t>
@@ -527,52 +425,31 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>83.6176470588</t>
-  </si>
-  <si>
     <t>39.0</t>
   </si>
   <si>
-    <t>5.33783783784</t>
-  </si>
-  <si>
     <t>32.0</t>
   </si>
   <si>
-    <t>18.9868085106</t>
-  </si>
-  <si>
     <t>32.9</t>
   </si>
   <si>
     <t>7.3</t>
   </si>
   <si>
-    <t>76.8803418803</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>5.868</t>
+    <t>80.5</t>
   </si>
   <si>
     <t>24.0</t>
   </si>
   <si>
-    <t>15.9616666667</t>
+    <t>15.7</t>
   </si>
   <si>
     <t>29.6</t>
   </si>
   <si>
-    <t>82.1338912134</t>
-  </si>
-  <si>
-    <t>4.17222222222</t>
-  </si>
-  <si>
-    <t>15.65</t>
+    <t>14.8</t>
   </si>
   <si>
     <t>26.4</t>
@@ -581,25 +458,19 @@
     <t>9.2</t>
   </si>
   <si>
-    <t>81.7333333333</t>
-  </si>
-  <si>
     <t>36.0</t>
   </si>
   <si>
-    <t>3.06944444444</t>
-  </si>
-  <si>
-    <t>16.8541666667</t>
-  </si>
-  <si>
-    <t>79.9708333333</t>
-  </si>
-  <si>
-    <t>3.00714285714</t>
-  </si>
-  <si>
-    <t>17.4308333333</t>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>15.85</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>16.75</t>
   </si>
   <si>
     <t>30.3</t>
@@ -608,76 +479,43 @@
     <t>10.4</t>
   </si>
   <si>
-    <t>81.9333333333</t>
-  </si>
-  <si>
-    <t>4.93157894737</t>
-  </si>
-  <si>
     <t>0.7</t>
   </si>
   <si>
-    <t>16.15125</t>
+    <t>15.1</t>
   </si>
   <si>
     <t>7.9</t>
   </si>
   <si>
-    <t>80.1125</t>
-  </si>
-  <si>
-    <t>3.215</t>
-  </si>
-  <si>
     <t>August</t>
   </si>
   <si>
-    <t>21.2004098361</t>
+    <t>21.2</t>
   </si>
   <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>82.2469135802</t>
-  </si>
-  <si>
-    <t>7.71875</t>
-  </si>
-  <si>
-    <t>22.7256756757</t>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>21.95</t>
   </si>
   <si>
     <t>12.5</t>
   </si>
   <si>
-    <t>81.009009009</t>
-  </si>
-  <si>
-    <t>21.3454545455</t>
-  </si>
-  <si>
     <t>167.0</t>
   </si>
   <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>21.237295082</t>
-  </si>
-  <si>
     <t>11.3</t>
   </si>
   <si>
-    <t>82.341563786</t>
-  </si>
-  <si>
-    <t>9.42727272727</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>20.2099173554</t>
+    <t>88.0</t>
   </si>
   <si>
     <t>32.7</t>
@@ -686,121 +524,64 @@
     <t>11.6</t>
   </si>
   <si>
-    <t>81.0330578512</t>
-  </si>
-  <si>
-    <t>14.3814814815</t>
+    <t>9.0</t>
   </si>
   <si>
     <t>63.0</t>
   </si>
   <si>
-    <t>19.7191666667</t>
-  </si>
-  <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>80.5313807531</t>
-  </si>
-  <si>
-    <t>12.35</t>
-  </si>
-  <si>
     <t>75.0</t>
   </si>
   <si>
-    <t>22.1870445344</t>
-  </si>
-  <si>
     <t>29.8</t>
   </si>
   <si>
     <t>15.5</t>
   </si>
   <si>
-    <t>85.0728744939</t>
-  </si>
-  <si>
     <t>41.0</t>
   </si>
   <si>
-    <t>10.5641025641</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>21.3979338843</t>
+    <t>21.15</t>
   </si>
   <si>
     <t>30.7</t>
   </si>
   <si>
-    <t>81.4522821577</t>
-  </si>
-  <si>
     <t>37.0</t>
   </si>
   <si>
-    <t>3.5375</t>
-  </si>
-  <si>
-    <t>20.1181451613</t>
-  </si>
-  <si>
     <t>9.4</t>
   </si>
   <si>
-    <t>86.0569105691</t>
-  </si>
-  <si>
-    <t>12.96</t>
-  </si>
-  <si>
     <t>59.0</t>
   </si>
   <si>
-    <t>21.2794354839</t>
-  </si>
-  <si>
     <t>30.8</t>
   </si>
   <si>
     <t>9.9</t>
   </si>
   <si>
-    <t>82.6048387097</t>
-  </si>
-  <si>
-    <t>20.2326612903</t>
+    <t>19.95</t>
   </si>
   <si>
     <t>10.6</t>
   </si>
   <si>
-    <t>75.439516129</t>
+    <t>77.0</t>
   </si>
   <si>
     <t>96.0</t>
   </si>
   <si>
-    <t>9.62857142857</t>
-  </si>
-  <si>
-    <t>20.3971659919</t>
-  </si>
-  <si>
     <t>32.4</t>
   </si>
   <si>
     <t>11.9</t>
-  </si>
-  <si>
-    <t>83.5506072874</t>
-  </si>
-  <si>
-    <t>17.5695652174</t>
   </si>
   <si>
     <t>171.0</t>
@@ -811,12 +592,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="arial"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -844,7 +625,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -853,43 +634,43 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -901,31 +682,30 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.09183673469388"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.52551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.09183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.09183673469388"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.53571428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2004</v>
       </c>
@@ -957,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2005</v>
       </c>
@@ -989,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2006</v>
       </c>
@@ -1012,309 +792,309 @@
         <v>15</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="J5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="J6" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="H8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="J8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="J9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2004</v>
       </c>
@@ -1346,62 +1126,62 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>15</v>
@@ -1410,300 +1190,300 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2004</v>
       </c>
@@ -1735,254 +1515,254 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>7</v>
@@ -1991,108 +1771,108 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>2004</v>
       </c>
@@ -2124,365 +1904,365 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="C46" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="H46" s="0" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>236</v>
+        <v>8</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Tinos,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Tinos,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>